--- a/T_Diagrama_Fisico.xlsx
+++ b/T_Diagrama_Fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47425337800\Documents\projetos2\2s2019-sprint-1-bd-OpFlix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD27822E-D98F-471B-A4C5-45D2EF65F2B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A770B5-6106-4A1F-9497-C323D8D8EF31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{424D6F4C-175B-43A1-A77B-BA2F35B03CAC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>IdTipoUsuario</t>
   </si>
@@ -96,24 +96,12 @@
     <t>IdLancamento</t>
   </si>
   <si>
-    <t>Salvation</t>
-  </si>
-  <si>
     <t>Rei Leão</t>
   </si>
   <si>
-    <t>Sintonia</t>
-  </si>
-  <si>
-    <t>La casa de papel</t>
-  </si>
-  <si>
     <t>Toy Story 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Doni, Nando e Rita cresceram juntos na mesma favela, influenciados pelo fascínio do funk, do tráfico de drogas e da igreja. </t>
-  </si>
-  <si>
     <t>Traído e exilado de seu reino, o leãozinho Simba precisa descobrir como crescer e retomar seu destino como herdeiro real nas planícies da savana africana</t>
   </si>
   <si>
@@ -126,18 +114,9 @@
     <t>100min</t>
   </si>
   <si>
-    <t>41min</t>
-  </si>
-  <si>
-    <t>35min</t>
-  </si>
-  <si>
     <t>118 min</t>
   </si>
   <si>
-    <t>50min</t>
-  </si>
-  <si>
     <t>Lancamentos</t>
   </si>
   <si>
@@ -192,16 +171,49 @@
     <t>IdPlataforma</t>
   </si>
   <si>
-    <t>três</t>
-  </si>
-  <si>
-    <t>idLancamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Um asteróide vai destruir a Terra em seis meses </t>
-  </si>
-  <si>
-    <t>PlataformaLancamento</t>
+    <t>650min</t>
+  </si>
+  <si>
+    <t>Deuses Americanos</t>
+  </si>
+  <si>
+    <t>Shadow Moon é um ex-vigarista que serve como segurança e companheiro de viagem para o Sr. Wednesday, um homem fraudulento que é, na verdade, um dos velhos deuses, e está na Terra em uma missão: reunir forças para lutar contra as novas entidades.</t>
+  </si>
+  <si>
+    <t>18+</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>620min</t>
+  </si>
+  <si>
+    <t>La casa de papel 3 temp</t>
+  </si>
+  <si>
+    <t>prime video</t>
+  </si>
+  <si>
+    <t>idClassificacao</t>
+  </si>
+  <si>
+    <t>idclassificação</t>
+  </si>
+  <si>
+    <t>classificacao</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>16+</t>
+  </si>
+  <si>
+    <t>12+</t>
+  </si>
+  <si>
+    <t>10+</t>
   </si>
 </sst>
 </file>
@@ -271,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -338,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F257F602-610E-4996-B748-C693D77830FD}" name="Tabela2" displayName="Tabela2" ref="D2:E8" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F257F602-610E-4996-B748-C693D77830FD}" name="Tabela2" displayName="Tabela2" ref="D2:E9" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D9937147-F702-4C0C-96E6-5E5B1B2D6416}" name="Coluna1"/>
     <tableColumn id="2" xr3:uid="{DC473D48-A632-4BDA-9C3A-B1C696271594}" name="Coluna2"/>
@@ -358,8 +370,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9D2728F-B1A3-4630-92CC-2EDADBC95E07}" name="Tabela4" displayName="Tabela4" ref="A11:H16" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9D2728F-B1A3-4630-92CC-2EDADBC95E07}" name="Tabela4" displayName="Tabela4" ref="A11:I15" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{71B2C43E-F8F3-428D-9C6E-C1E276ED7193}" name="Coluna1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{5A852F4A-791D-4219-93AE-28944A3B1552}" name="Coluna2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{DC83308B-3A3B-493A-9BCE-7BF51FA10521}" name="Coluna3" dataDxfId="3"/>
@@ -368,6 +380,7 @@
     <tableColumn id="6" xr3:uid="{E8690A18-28DB-4D31-A7E0-39538DC12FD7}" name="Coluna6"/>
     <tableColumn id="7" xr3:uid="{943AE113-F0EA-4C2E-826B-A8E410166E14}" name="Coluna7" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{09B12305-9012-428B-8FBD-A630700D0FC8}" name="Coluna8"/>
+    <tableColumn id="9" xr3:uid="{D7A03870-5F69-4BEC-81FB-DACF53016A1A}" name="Coluna9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -388,7 +401,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B109AB2-E16B-4110-9864-48F506DDB1EC}" name="Tabela7" displayName="Tabela7" ref="J7:K10" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B109AB2-E16B-4110-9864-48F506DDB1EC}" name="Tabela7" displayName="Tabela7" ref="K7:L11" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{339CD381-872D-410A-BD81-0E866B86F021}" name="Coluna1"/>
     <tableColumn id="2" xr3:uid="{93B965BE-C12F-413A-AF2E-3B469C46F383}" name="Coluna2"/>
@@ -398,10 +411,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{27AF65EE-327D-4905-9B9B-3B8DCD77CFD9}" name="Tabela8" displayName="Tabela8" ref="M7:N15" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3C54F44A-3AA6-49A1-A7C8-B4EC1924EDA4}" name="Tabela5" displayName="Tabela5" ref="N7:O12" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{06C5B20D-2FF5-4020-8669-6B8036BDB752}" name="Coluna1"/>
-    <tableColumn id="2" xr3:uid="{7C47894D-8478-4009-8B77-4F75F160C7E5}" name="Coluna2"/>
+    <tableColumn id="1" xr3:uid="{8445DF7D-1D0F-4A2A-90B0-4A3ADF76C8EF}" name="Coluna1"/>
+    <tableColumn id="2" xr3:uid="{6782ED46-0B45-4EAB-B01D-A46BACAA6E83}" name="Coluna2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -706,25 +719,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B84CC31-03DC-447D-B2A5-7201ECC09E62}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -738,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -761,22 +776,22 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
         <v>40</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -802,19 +817,19 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N3">
         <v>333</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -840,13 +855,13 @@
         <v>2</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N4">
         <v>555</v>
@@ -870,11 +885,8 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
+      <c r="K6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -885,17 +897,17 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
       <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
       </c>
       <c r="N7" t="s">
         <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -905,48 +917,54 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J9">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="L9" t="s">
+        <v>45</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10">
+        <v>30</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10">
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10">
         <v>3</v>
       </c>
-      <c r="N10">
-        <v>2</v>
+      <c r="O10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -972,16 +990,25 @@
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
       </c>
       <c r="N11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -989,28 +1016,31 @@
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43634</v>
+      </c>
+      <c r="H12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="4">
-        <v>43683</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="I12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1018,120 +1048,93 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4">
-        <v>43634</v>
+        <v>42855</v>
       </c>
       <c r="H13" s="2">
-        <v>3</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2</v>
-      </c>
-      <c r="N13" s="2">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G14" s="4">
-        <v>43687</v>
+        <v>43626</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="I14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4">
-        <v>43626</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15">
+        <v>43636</v>
+      </c>
+      <c r="H15" s="7">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="4">
-        <v>43636</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{D403BF27-6F28-48DD-82AA-04F91374FB6B}"/>
